--- a/Investment/THS/AutoTrade/data/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>名称</t>
   </si>
@@ -46,73 +46,76 @@
     <t>盈亏比例(%)</t>
   </si>
   <si>
+    <t>超短稳定复利</t>
+  </si>
+  <si>
     <t>组-逻辑为王</t>
   </si>
   <si>
+    <t>ETF-主题成长优选</t>
+  </si>
+  <si>
     <t>ETF-主题轮动精选</t>
   </si>
   <si>
     <t>赛-情绪拐点龙头战法</t>
   </si>
   <si>
-    <t>赛-短线趋势题材</t>
-  </si>
-  <si>
     <t>买入</t>
   </si>
   <si>
-    <t>合锻智能</t>
-  </si>
-  <si>
-    <t>大众交通</t>
-  </si>
-  <si>
-    <t>卧龙电驱</t>
+    <t>三一重工</t>
+  </si>
+  <si>
+    <t>三安光电</t>
+  </si>
+  <si>
+    <t>中联重科</t>
+  </si>
+  <si>
+    <t>万丰奥威</t>
+  </si>
+  <si>
+    <t>港股通创新药ETF工银</t>
+  </si>
+  <si>
+    <t>光伏ETF</t>
   </si>
   <si>
     <t>房地产ETF</t>
   </si>
   <si>
-    <t>光伏ETF</t>
-  </si>
-  <si>
     <t>博敏电子</t>
   </si>
   <si>
     <t>硅宝科技</t>
   </si>
   <si>
-    <t>智迪科技</t>
-  </si>
-  <si>
-    <t>中创物流</t>
-  </si>
-  <si>
-    <t>603011</t>
-  </si>
-  <si>
-    <t>600611</t>
-  </si>
-  <si>
-    <t>600580</t>
+    <t>600031</t>
+  </si>
+  <si>
+    <t>600703</t>
+  </si>
+  <si>
+    <t>000157</t>
+  </si>
+  <si>
+    <t>002085</t>
+  </si>
+  <si>
+    <t>159217</t>
+  </si>
+  <si>
+    <t>515790</t>
   </si>
   <si>
     <t>512200</t>
   </si>
   <si>
-    <t>515790</t>
-  </si>
-  <si>
     <t>603936</t>
   </si>
   <si>
     <t>300019</t>
-  </si>
-  <si>
-    <t>301503</t>
-  </si>
-  <si>
-    <t>603967</t>
   </si>
   <si>
     <t>沪深A股</t>
@@ -522,95 +525,95 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>16.5</v>
+        <v>20.1</v>
       </c>
       <c r="F2">
-        <v>32.9</v>
+        <v>4.89</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>16.68</v>
+        <v>18.6498</v>
       </c>
       <c r="I2">
-        <v>-3.28</v>
+        <v>2.78</v>
       </c>
       <c r="J2">
-        <v>-1.08</v>
+        <v>7.829999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>6.23</v>
+        <v>12.67</v>
       </c>
       <c r="F3">
-        <v>33.2</v>
+        <v>33.09</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>6.19</v>
+        <v>12.64</v>
       </c>
       <c r="I3">
-        <v>1.95</v>
+        <v>0.72</v>
       </c>
       <c r="J3">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>20.7</v>
+        <v>7.96</v>
       </c>
       <c r="F4">
-        <v>33.34</v>
+        <v>32.87</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>20.44</v>
+        <v>8.06</v>
       </c>
       <c r="I4">
-        <v>3.83</v>
+        <v>-3.76</v>
       </c>
       <c r="J4">
-        <v>1.22</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -618,191 +621,191 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>1.397</v>
+        <v>16.79</v>
       </c>
       <c r="F5">
-        <v>48.56</v>
+        <v>33.32</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
       </c>
       <c r="H5">
-        <v>1.418</v>
+        <v>16.75</v>
       </c>
       <c r="I5">
-        <v>-0.9900000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="J5">
-        <v>-1.41</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>0.717</v>
+        <v>1.482</v>
       </c>
       <c r="F6">
-        <v>51.4</v>
+        <v>14.94</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>0.6889999999999999</v>
+        <v>1.49</v>
       </c>
       <c r="I6">
-        <v>2.71</v>
+        <v>-0.12</v>
       </c>
       <c r="J6">
-        <v>4.06</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>9.779999999999999</v>
+        <v>0.747</v>
       </c>
       <c r="F7">
-        <v>49.82</v>
+        <v>49.87</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>9.9</v>
+        <v>0.735</v>
       </c>
       <c r="I7">
-        <v>-0.9400000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="J7">
-        <v>-1.31</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>22.39</v>
+        <v>1.461</v>
       </c>
       <c r="F8">
-        <v>50.18</v>
+        <v>50.13</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8">
-        <v>22.5</v>
+        <v>1.43</v>
       </c>
       <c r="I8">
-        <v>-0.38</v>
+        <v>1.47</v>
       </c>
       <c r="J8">
-        <v>-0.49</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>39.29</v>
+        <v>10.11</v>
       </c>
       <c r="F9">
-        <v>50.05</v>
+        <v>50.11</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>39.19</v>
+        <v>9.9</v>
       </c>
       <c r="I9">
-        <v>0.21</v>
+        <v>1.64</v>
       </c>
       <c r="J9">
-        <v>0.26</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>11.28</v>
+        <v>22.88</v>
       </c>
       <c r="F10">
-        <v>42.61</v>
+        <v>49.9</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>11.26</v>
+        <v>22.5</v>
       </c>
       <c r="I10">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="J10">
-        <v>0.27</v>
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>名称</t>
   </si>
@@ -46,12 +46,12 @@
     <t>盈亏比例(%)</t>
   </si>
   <si>
-    <t>超短稳定复利</t>
-  </si>
-  <si>
     <t>组-逻辑为王</t>
   </si>
   <si>
+    <t>组-精选个股</t>
+  </si>
+  <si>
     <t>ETF-主题成长优选</t>
   </si>
   <si>
@@ -64,67 +64,58 @@
     <t>买入</t>
   </si>
   <si>
-    <t>三一重工</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
-    <t>中联重科</t>
-  </si>
-  <si>
-    <t>万丰奥威</t>
+    <t>浙大网新</t>
+  </si>
+  <si>
+    <t>拓斯达</t>
+  </si>
+  <si>
+    <t>凯因科技</t>
   </si>
   <si>
     <t>港股通创新药ETF工银</t>
   </si>
   <si>
+    <t>证券ETF</t>
+  </si>
+  <si>
     <t>光伏ETF</t>
   </si>
   <si>
-    <t>房地产ETF</t>
-  </si>
-  <si>
-    <t>博敏电子</t>
-  </si>
-  <si>
-    <t>硅宝科技</t>
-  </si>
-  <si>
-    <t>600031</t>
-  </si>
-  <si>
-    <t>600703</t>
-  </si>
-  <si>
-    <t>000157</t>
-  </si>
-  <si>
-    <t>002085</t>
+    <t>皇氏集团</t>
+  </si>
+  <si>
+    <t>600797</t>
+  </si>
+  <si>
+    <t>300607</t>
+  </si>
+  <si>
+    <t>688687</t>
   </si>
   <si>
     <t>159217</t>
   </si>
   <si>
+    <t>512880</t>
+  </si>
+  <si>
     <t>515790</t>
   </si>
   <si>
-    <t>512200</t>
-  </si>
-  <si>
-    <t>603936</t>
-  </si>
-  <si>
-    <t>300019</t>
+    <t>002329</t>
   </si>
   <si>
     <t>沪深A股</t>
   </si>
   <si>
+    <t>创业板</t>
+  </si>
+  <si>
+    <t>科创板</t>
+  </si>
+  <si>
     <t>其他</t>
-  </si>
-  <si>
-    <t>创业板</t>
   </si>
 </sst>
 </file>
@@ -482,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,30 +522,30 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>20.1</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F2">
-        <v>4.89</v>
+        <v>32.09</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>18.6498</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="I2">
-        <v>2.78</v>
+        <v>-4.92</v>
       </c>
       <c r="J2">
-        <v>7.829999999999999</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -563,25 +554,25 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>12.67</v>
+        <v>34.05</v>
       </c>
       <c r="F3">
-        <v>33.09</v>
+        <v>32.46</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>12.64</v>
+        <v>34.28</v>
       </c>
       <c r="I3">
-        <v>0.72</v>
+        <v>-2.03</v>
       </c>
       <c r="J3">
-        <v>0.32</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -595,30 +586,30 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>7.96</v>
+        <v>33.13</v>
       </c>
       <c r="F4">
-        <v>32.87</v>
+        <v>74.08</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>8.06</v>
+        <v>27.05</v>
       </c>
       <c r="I4">
-        <v>-3.76</v>
+        <v>53.54</v>
       </c>
       <c r="J4">
-        <v>-1.24</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -627,30 +618,30 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>16.79</v>
+        <v>1.522</v>
       </c>
       <c r="F5">
-        <v>33.32</v>
+        <v>15.28</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5">
-        <v>16.75</v>
+        <v>1.49</v>
       </c>
       <c r="I5">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
       <c r="J5">
-        <v>0.24</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -659,25 +650,25 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1.482</v>
+        <v>1.239</v>
       </c>
       <c r="F6">
-        <v>14.94</v>
+        <v>50.5</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6">
-        <v>1.49</v>
+        <v>1.231</v>
       </c>
       <c r="I6">
-        <v>-0.12</v>
+        <v>0.45</v>
       </c>
       <c r="J6">
-        <v>-0.54</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -691,30 +682,30 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>0.747</v>
+        <v>0.739</v>
       </c>
       <c r="F7">
-        <v>49.87</v>
+        <v>49.51</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>0.735</v>
       </c>
       <c r="I7">
-        <v>1.11</v>
+        <v>0.37</v>
       </c>
       <c r="J7">
-        <v>1.77</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -723,89 +714,25 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>1.461</v>
+        <v>3.85</v>
       </c>
       <c r="F8">
-        <v>50.13</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>1.43</v>
+        <v>3.84</v>
       </c>
       <c r="I8">
-        <v>1.47</v>
+        <v>0.41</v>
       </c>
       <c r="J8">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>10.11</v>
-      </c>
-      <c r="F9">
-        <v>50.11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9">
-        <v>9.9</v>
-      </c>
-      <c r="I9">
-        <v>1.64</v>
-      </c>
-      <c r="J9">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>22.88</v>
-      </c>
-      <c r="F10">
-        <v>49.9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10">
-        <v>22.5</v>
-      </c>
-      <c r="I10">
-        <v>1.31</v>
-      </c>
-      <c r="J10">
-        <v>1.91</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>名称</t>
   </si>
@@ -52,10 +52,10 @@
     <t>组-精选个股</t>
   </si>
   <si>
-    <t>ETF-主题成长优选</t>
-  </si>
-  <si>
-    <t>ETF-主题轮动精选</t>
+    <t>E-主题成长优选</t>
+  </si>
+  <si>
+    <t>E-主题轮动精选</t>
   </si>
   <si>
     <t>赛-情绪拐点龙头战法</t>
@@ -64,6 +64,9 @@
     <t>买入</t>
   </si>
   <si>
+    <t>航天彩虹</t>
+  </si>
+  <si>
     <t>浙大网新</t>
   </si>
   <si>
@@ -82,7 +85,10 @@
     <t>光伏ETF</t>
   </si>
   <si>
-    <t>皇氏集团</t>
+    <t>翰宇药业</t>
+  </si>
+  <si>
+    <t>002389</t>
   </si>
   <si>
     <t>600797</t>
@@ -103,7 +109,7 @@
     <t>515790</t>
   </si>
   <si>
-    <t>002329</t>
+    <t>300199</t>
   </si>
   <si>
     <t>沪深A股</t>
@@ -473,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,25 +528,25 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>9.630000000000001</v>
+        <v>25.85</v>
       </c>
       <c r="F2">
-        <v>32.09</v>
+        <v>33.35</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2">
-        <v>9.789999999999999</v>
+        <v>25.81</v>
       </c>
       <c r="I2">
-        <v>-4.92</v>
+        <v>0.48</v>
       </c>
       <c r="J2">
-        <v>-1.63</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -554,30 +560,30 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>34.05</v>
+        <v>9.5</v>
       </c>
       <c r="F3">
-        <v>32.46</v>
+        <v>31.82</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>34.28</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="I3">
-        <v>-2.03</v>
+        <v>-8.92</v>
       </c>
       <c r="J3">
-        <v>-0.7000000000000001</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -586,30 +592,30 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>33.13</v>
+        <v>33.93</v>
       </c>
       <c r="F4">
-        <v>74.08</v>
+        <v>32.51</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>27.05</v>
+        <v>34.28</v>
       </c>
       <c r="I4">
-        <v>53.54</v>
+        <v>-3.08</v>
       </c>
       <c r="J4">
-        <v>22.62</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -618,30 +624,30 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1.522</v>
+        <v>33.78</v>
       </c>
       <c r="F5">
-        <v>15.28</v>
+        <v>74.45</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>1.49</v>
+        <v>27.05</v>
       </c>
       <c r="I5">
-        <v>0.45</v>
+        <v>59.27</v>
       </c>
       <c r="J5">
-        <v>2.08</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -650,25 +656,25 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>1.239</v>
+        <v>1.591</v>
       </c>
       <c r="F6">
-        <v>50.5</v>
+        <v>30.23</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>1.231</v>
+        <v>1.53</v>
       </c>
       <c r="I6">
-        <v>0.45</v>
+        <v>1.62</v>
       </c>
       <c r="J6">
-        <v>0.65</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -682,30 +688,30 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>0.739</v>
+        <v>1.218</v>
       </c>
       <c r="F7">
-        <v>49.51</v>
+        <v>50.17</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>0.735</v>
+        <v>1.231</v>
       </c>
       <c r="I7">
-        <v>0.37</v>
+        <v>-0.73</v>
       </c>
       <c r="J7">
-        <v>0.41</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -714,25 +720,57 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>3.85</v>
+        <v>0.736</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>49.84</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H8">
-        <v>3.84</v>
+        <v>0.735</v>
       </c>
       <c r="I8">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="J8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>20.13</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>20.3</v>
+      </c>
+      <c r="I9">
+        <v>-1.35</v>
+      </c>
+      <c r="J9">
+        <v>-0.84</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>名称</t>
   </si>
@@ -49,6 +49,9 @@
     <t>组-逻辑为王</t>
   </si>
   <si>
+    <t>组-中线龙头</t>
+  </si>
+  <si>
     <t>组-精选个股</t>
   </si>
   <si>
@@ -58,7 +61,7 @@
     <t>E-主题轮动精选</t>
   </si>
   <si>
-    <t>赛-情绪拐点龙头战法</t>
+    <t>赛-短线趋势题材</t>
   </si>
   <si>
     <t>买入</t>
@@ -67,49 +70,49 @@
     <t>航天彩虹</t>
   </si>
   <si>
-    <t>浙大网新</t>
-  </si>
-  <si>
-    <t>拓斯达</t>
+    <t>达嘉维康</t>
   </si>
   <si>
     <t>凯因科技</t>
   </si>
   <si>
+    <t>银行ETF指数</t>
+  </si>
+  <si>
     <t>港股通创新药ETF工银</t>
   </si>
   <si>
     <t>证券ETF</t>
   </si>
   <si>
-    <t>光伏ETF</t>
-  </si>
-  <si>
-    <t>翰宇药业</t>
+    <t>锐明技术</t>
+  </si>
+  <si>
+    <t>晶晨股份</t>
   </si>
   <si>
     <t>002389</t>
   </si>
   <si>
-    <t>600797</t>
-  </si>
-  <si>
-    <t>300607</t>
+    <t>301126</t>
   </si>
   <si>
     <t>688687</t>
   </si>
   <si>
+    <t>512730</t>
+  </si>
+  <si>
     <t>159217</t>
   </si>
   <si>
     <t>512880</t>
   </si>
   <si>
-    <t>515790</t>
-  </si>
-  <si>
-    <t>300199</t>
+    <t>002970</t>
+  </si>
+  <si>
+    <t>688099</t>
   </si>
   <si>
     <t>沪深A股</t>
@@ -522,255 +525,255 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>25.85</v>
+        <v>24.81</v>
       </c>
       <c r="F2">
-        <v>33.35</v>
+        <v>32.57</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>25.81</v>
       </c>
       <c r="I2">
-        <v>0.48</v>
+        <v>-11.84</v>
       </c>
       <c r="J2">
-        <v>0.23</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>9.5</v>
+        <v>13.28</v>
       </c>
       <c r="F3">
-        <v>31.82</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>9.789999999999999</v>
+        <v>13.06</v>
       </c>
       <c r="I3">
-        <v>-8.92</v>
+        <v>12.02</v>
       </c>
       <c r="J3">
-        <v>-2.86</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>33.93</v>
+        <v>36.08</v>
       </c>
       <c r="F4">
-        <v>32.51</v>
+        <v>75.69</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>34.28</v>
+        <v>27.05</v>
       </c>
       <c r="I4">
-        <v>-3.08</v>
+        <v>79.52</v>
       </c>
       <c r="J4">
-        <v>-1.02</v>
+        <v>33.38</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>33.78</v>
+        <v>1.743</v>
       </c>
       <c r="F5">
-        <v>74.45</v>
+        <v>50.89</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>27.05</v>
+        <v>1.749</v>
       </c>
       <c r="I5">
-        <v>59.27</v>
+        <v>-0.25</v>
       </c>
       <c r="J5">
-        <v>24.84</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>1.591</v>
+        <v>1.542</v>
       </c>
       <c r="F6">
-        <v>30.23</v>
+        <v>29.62</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>1.53</v>
       </c>
       <c r="I6">
-        <v>1.62</v>
+        <v>0.32</v>
       </c>
       <c r="J6">
-        <v>3.99</v>
+        <v>0.7799999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>1.218</v>
+        <v>1.188</v>
       </c>
       <c r="F7">
-        <v>50.17</v>
+        <v>49.79</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>1.231</v>
       </c>
       <c r="I7">
-        <v>-0.73</v>
+        <v>-2.41</v>
       </c>
       <c r="J7">
-        <v>-0.97</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>0.736</v>
+        <v>45.52</v>
       </c>
       <c r="F8">
-        <v>49.84</v>
+        <v>35.25</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>0.735</v>
+        <v>45.4</v>
       </c>
       <c r="I8">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>20.13</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>49.65</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>20.3</v>
+        <v>72.53</v>
       </c>
       <c r="I9">
-        <v>-1.35</v>
+        <v>-1.02</v>
       </c>
       <c r="J9">
-        <v>-0.84</v>
+        <v>-1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>名称</t>
   </si>
@@ -67,7 +67,10 @@
     <t>买入</t>
   </si>
   <si>
-    <t>航天彩虹</t>
+    <t>光华科技</t>
+  </si>
+  <si>
+    <t>王子新材</t>
   </si>
   <si>
     <t>达嘉维康</t>
@@ -91,7 +94,10 @@
     <t>晶晨股份</t>
   </si>
   <si>
-    <t>002389</t>
+    <t>002741</t>
+  </si>
+  <si>
+    <t>002735</t>
   </si>
   <si>
     <t>301126</t>
@@ -482,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,30 +537,30 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>24.81</v>
+        <v>19.48</v>
       </c>
       <c r="F2">
-        <v>32.57</v>
+        <v>32.92</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2">
-        <v>25.81</v>
+        <v>19.55</v>
       </c>
       <c r="I2">
-        <v>-11.84</v>
+        <v>-1.07</v>
       </c>
       <c r="J2">
-        <v>-3.91</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -563,30 +569,30 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>13.28</v>
+        <v>15.42</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>33.06</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>13.06</v>
+        <v>15.41</v>
       </c>
       <c r="I3">
-        <v>12.02</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
-        <v>1.76</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -595,30 +601,30 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>36.08</v>
+        <v>13.98</v>
       </c>
       <c r="F4">
-        <v>75.69</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>27.05</v>
+        <v>13.06</v>
       </c>
       <c r="I4">
-        <v>79.52</v>
+        <v>50.27</v>
       </c>
       <c r="J4">
-        <v>33.38</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -627,25 +633,25 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>1.743</v>
+        <v>35.6</v>
       </c>
       <c r="F5">
-        <v>50.89</v>
+        <v>75.44</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>1.749</v>
+        <v>27.05</v>
       </c>
       <c r="I5">
-        <v>-0.25</v>
+        <v>75.29000000000001</v>
       </c>
       <c r="J5">
-        <v>-0.34</v>
+        <v>31.61</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -659,30 +665,30 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>1.542</v>
+        <v>1.779</v>
       </c>
       <c r="F6">
-        <v>29.62</v>
+        <v>51.03</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>1.53</v>
+        <v>1.749</v>
       </c>
       <c r="I6">
-        <v>0.32</v>
+        <v>1.21</v>
       </c>
       <c r="J6">
-        <v>0.7799999999999999</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -691,30 +697,30 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>1.188</v>
+        <v>1.58</v>
       </c>
       <c r="F7">
-        <v>49.79</v>
+        <v>29.82</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>1.231</v>
+        <v>1.53</v>
       </c>
       <c r="I7">
-        <v>-2.41</v>
+        <v>1.32</v>
       </c>
       <c r="J7">
-        <v>-3.49</v>
+        <v>3.330000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -723,25 +729,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>45.52</v>
+        <v>1.205</v>
       </c>
       <c r="F8">
-        <v>35.25</v>
+        <v>50.13999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>45.4</v>
+        <v>1.231</v>
       </c>
       <c r="I8">
-        <v>0.16</v>
+        <v>-1.46</v>
       </c>
       <c r="J8">
-        <v>0.26</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -755,25 +761,57 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>71.65000000000001</v>
+        <v>46.15</v>
       </c>
       <c r="F9">
-        <v>49.65</v>
+        <v>35.34</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9">
+        <v>45.4</v>
+      </c>
+      <c r="I9">
+        <v>0.98</v>
+      </c>
+      <c r="J9">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>72.56</v>
+      </c>
+      <c r="F10">
+        <v>49.73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10">
         <v>72.53</v>
       </c>
-      <c r="I9">
-        <v>-1.02</v>
-      </c>
-      <c r="J9">
-        <v>-1.21</v>
+      <c r="I10">
+        <v>0.04</v>
+      </c>
+      <c r="J10">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/Combination_position.xlsx
+++ b/Investment/THS/AutoTrade/data/Combination_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>名称</t>
   </si>
@@ -55,6 +55,9 @@
     <t>组-精选个股</t>
   </si>
   <si>
+    <t>组-一枝梨花压海棠</t>
+  </si>
+  <si>
     <t>E-主题成长优选</t>
   </si>
   <si>
@@ -67,10 +70,7 @@
     <t>买入</t>
   </si>
   <si>
-    <t>光华科技</t>
-  </si>
-  <si>
-    <t>王子新材</t>
+    <t>宗申动力</t>
   </si>
   <si>
     <t>达嘉维康</t>
@@ -79,6 +79,24 @@
     <t>凯因科技</t>
   </si>
   <si>
+    <t>润泽科技</t>
+  </si>
+  <si>
+    <t>科泰电源</t>
+  </si>
+  <si>
+    <t>易点天下</t>
+  </si>
+  <si>
+    <t>每日互动</t>
+  </si>
+  <si>
+    <t>奥飞娱乐</t>
+  </si>
+  <si>
+    <t>京北方</t>
+  </si>
+  <si>
     <t>银行ETF指数</t>
   </si>
   <si>
@@ -94,16 +112,31 @@
     <t>晶晨股份</t>
   </si>
   <si>
-    <t>002741</t>
-  </si>
-  <si>
-    <t>002735</t>
+    <t>001696</t>
   </si>
   <si>
     <t>301126</t>
   </si>
   <si>
     <t>688687</t>
+  </si>
+  <si>
+    <t>300442</t>
+  </si>
+  <si>
+    <t>300153</t>
+  </si>
+  <si>
+    <t>301171</t>
+  </si>
+  <si>
+    <t>300766</t>
+  </si>
+  <si>
+    <t>002292</t>
+  </si>
+  <si>
+    <t>002987</t>
   </si>
   <si>
     <t>512730</t>
@@ -488,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,127 +564,127 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>19.48</v>
+        <v>24.26</v>
       </c>
       <c r="F2">
-        <v>32.92</v>
+        <v>32.93</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H2">
-        <v>19.55</v>
+        <v>24.44</v>
       </c>
       <c r="I2">
-        <v>-1.07</v>
+        <v>-2.25</v>
       </c>
       <c r="J2">
-        <v>-0.36</v>
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>15.42</v>
+        <v>13.65</v>
       </c>
       <c r="F3">
-        <v>33.06</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H3">
-        <v>15.41</v>
+        <v>13.06</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>32.24</v>
       </c>
       <c r="J3">
-        <v>0.13</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>13.98</v>
+        <v>34.86</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>75.05</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>13.06</v>
+        <v>27.05</v>
       </c>
       <c r="I4">
-        <v>50.27</v>
+        <v>68.78</v>
       </c>
       <c r="J4">
-        <v>7.04</v>
+        <v>28.87</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>35.6</v>
+        <v>49.66</v>
       </c>
       <c r="F5">
-        <v>75.44</v>
+        <v>11.12</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H5">
-        <v>27.05</v>
+        <v>49.5</v>
       </c>
       <c r="I5">
-        <v>75.29000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="J5">
-        <v>31.61</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -659,31 +692,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>1.779</v>
+        <v>33.54</v>
       </c>
       <c r="F6">
-        <v>51.03</v>
+        <v>10.02</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H6">
-        <v>1.749</v>
+        <v>29.0524</v>
       </c>
       <c r="I6">
-        <v>1.21</v>
+        <v>3.96</v>
       </c>
       <c r="J6">
-        <v>1.72</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -691,127 +724,287 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>1.58</v>
+        <v>30.64</v>
       </c>
       <c r="F7">
-        <v>29.82</v>
+        <v>19.5</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H7">
-        <v>1.53</v>
+        <v>31.2812</v>
       </c>
       <c r="I7">
-        <v>1.32</v>
+        <v>-1.21</v>
       </c>
       <c r="J7">
-        <v>3.330000000000001</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>1.205</v>
+        <v>37.38</v>
       </c>
       <c r="F8">
-        <v>50.13999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H8">
-        <v>1.231</v>
+        <v>37.72</v>
       </c>
       <c r="I8">
-        <v>-1.46</v>
+        <v>-0.26</v>
       </c>
       <c r="J8">
-        <v>-2.11</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>46.15</v>
-      </c>
-      <c r="F9">
-        <v>35.34</v>
-      </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H9">
-        <v>45.4</v>
+        <v>9.4986</v>
       </c>
       <c r="I9">
-        <v>0.98</v>
+        <v>-0.23</v>
       </c>
       <c r="J9">
-        <v>1.65</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>20.09</v>
+      </c>
+      <c r="F10">
+        <v>35.03</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>21.4621</v>
+      </c>
+      <c r="I10">
+        <v>-7.07</v>
+      </c>
+      <c r="J10">
+        <v>-6.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>1.766</v>
+      </c>
+      <c r="F11">
+        <v>51.43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>1.749</v>
+      </c>
+      <c r="I11">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>1.52</v>
+      </c>
+      <c r="F12">
+        <v>29.13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12">
+        <v>1.53</v>
+      </c>
+      <c r="I12">
+        <v>-0.27</v>
+      </c>
+      <c r="J12">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>1.215</v>
+      </c>
+      <c r="F13">
+        <v>50.34999999999999</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13">
+        <v>1.231</v>
+      </c>
+      <c r="I13">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="J13">
+        <v>-1.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10">
-        <v>72.56</v>
-      </c>
-      <c r="F10">
-        <v>49.73</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>46.15</v>
+      </c>
+      <c r="F14">
+        <v>35.65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>45.4</v>
+      </c>
+      <c r="I14">
+        <v>0.98</v>
+      </c>
+      <c r="J14">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>71.3</v>
+      </c>
+      <c r="F15">
+        <v>49.29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15">
         <v>72.53</v>
       </c>
-      <c r="I10">
-        <v>0.04</v>
-      </c>
-      <c r="J10">
-        <v>0.04</v>
+      <c r="I15">
+        <v>-1.43</v>
+      </c>
+      <c r="J15">
+        <v>-1.71</v>
       </c>
     </row>
   </sheetData>
